--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2003-03-31-2006-01-31.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2003-03-31-2006-01-31.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>LF_B</t>
-  </si>
-  <si>
-    <t>LF_O</t>
-  </si>
-  <si>
-    <t>FFR_O</t>
-  </si>
-  <si>
-    <t>O_FFR</t>
+    <t>B_LF</t>
+  </si>
+  <si>
+    <t>C_B</t>
+  </si>
+  <si>
+    <t>C_FFR</t>
+  </si>
+  <si>
+    <t>LF_C</t>
   </si>
   <si>
     <t>params</t>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2.347987136950866</v>
+        <v>0.01139498042573416</v>
       </c>
       <c r="C2">
-        <v>1.010884243584846</v>
+        <v>0.9400827977904548</v>
       </c>
       <c r="D2">
-        <v>2.747947392099823</v>
+        <v>0.001956093852152114</v>
       </c>
       <c r="E2">
-        <v>0.2410514474970158</v>
+        <v>11.90697295111552</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.5168049867096696</v>
+        <v>0.04638754707348047</v>
       </c>
       <c r="C3">
-        <v>2.757865209535026E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.671780574559079E-10</v>
+        <v>0.02023979304397994</v>
       </c>
       <c r="E3">
-        <v>2.671780574559079E-10</v>
+        <v>0.006868588110146678</v>
       </c>
     </row>
   </sheetData>
